--- a/biology/Botanique/Salix_burjatica/Salix_burjatica.xlsx
+++ b/biology/Botanique/Salix_burjatica/Salix_burjatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix burjatica est une espèce de saule de la famille des Salicaceae, présente naturellement en bordure de l'Arctique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix burjatica est une espèce de saule de la famille des Salicaceae, présente naturellement en bordure de l'Arctique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix dasyclados Wimm. 1849 qui est plutôt le nom d'un hybride du centre et de l'est de l'Europe (d'après Skvortsov 1968; Jalas and Suominen 1976).
 Salix gmelinii Pall.</t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix burjatica est une espèce vigoureuse. En 4 à 5 ans, elle produit des rameaux de bonne taille récoltés comme combustible. La plante est utilisée en phyto-remédiation, en cas de pollution par les métaux lourds[3]. La floraison survient en début de printemps, avant l'apparition des feuilles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix burjatica est une espèce vigoureuse. En 4 à 5 ans, elle produit des rameaux de bonne taille récoltés comme combustible. La plante est utilisée en phyto-remédiation, en cas de pollution par les métaux lourds. La floraison survient en début de printemps, avant l'apparition des feuilles.
 </t>
         </is>
       </c>
